--- a/pL2f1433_SS.xlsx
+++ b/pL2f1433_SS.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>39.712345859999999</v>
